--- a/data/long_razon/P19_2-Edad-long_razon.xlsx
+++ b/data/long_razon/P19_2-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-29,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-52,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>124,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-56,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-41,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-31,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-59,6; 12,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 80,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 113,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-73,24; -22,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,02; 311,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,12; -29,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,48; -19,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 112,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-54,74; -1,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-64,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-48,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,31; -40,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 160,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 189,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,88; 14,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 33,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 84,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,47; -26,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 72,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 97,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-26,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>106,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-23,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-55,36; 26,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 94,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 38,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 9,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,89; 194,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 48,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 4,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,6; 110,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 29,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 52,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 133,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 106,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 32,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 112,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 28,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 28,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 96,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 40,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-20,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-18,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 27,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 112,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 39,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 18,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 141,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 127,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 92,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 63,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 34,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 177,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 46,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 61,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 105,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 146,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 30,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 103,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 79,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-23,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-40,77; -11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 61,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 31,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,86; 79,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 26,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-32,44; -13,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,48; 63,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 21,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
